--- a/data/trans_orig/P05B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05B_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12564</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6443</v>
+        <v>6772</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21288</v>
+        <v>22217</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02543049925150078</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01304108777093363</v>
+        <v>0.01370643286315193</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0430865996487402</v>
+        <v>0.04496839714139395</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>14105</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8480</v>
+        <v>8366</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22685</v>
+        <v>22731</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03017155001956229</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01813841661513755</v>
+        <v>0.01789615146898304</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04852543098854528</v>
+        <v>0.04862267282614838</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -786,19 +786,19 @@
         <v>26669</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17922</v>
+        <v>18123</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38508</v>
+        <v>38945</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02773550959688739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01863908969218437</v>
+        <v>0.01884752719275395</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04004766328439269</v>
+        <v>0.04050210299047471</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>481500</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>472776</v>
+        <v>471847</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>487621</v>
+        <v>487292</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9745695007484992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9569134003512597</v>
+        <v>0.9550316028586062</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9869589122290662</v>
+        <v>0.986293567136848</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>474</v>
@@ -836,19 +836,19 @@
         <v>453384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>444804</v>
+        <v>444758</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>459009</v>
+        <v>459123</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9698284499804377</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9514745690114547</v>
+        <v>0.9513773271738514</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9818615833848624</v>
+        <v>0.982103848531017</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>961</v>
@@ -857,19 +857,19 @@
         <v>934884</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>923045</v>
+        <v>922608</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>943631</v>
+        <v>943430</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9722644904031126</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9599523367156072</v>
+        <v>0.9594978970095253</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9813609103078156</v>
+        <v>0.981152472807246</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>23051</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14899</v>
+        <v>14753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34622</v>
+        <v>35386</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03134065231537986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02025715863802974</v>
+        <v>0.020058148698959</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04707367246764459</v>
+        <v>0.0481117477046473</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -982,19 +982,19 @@
         <v>29028</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19178</v>
+        <v>19569</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42066</v>
+        <v>43469</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04652859503721962</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03074035954547405</v>
+        <v>0.03136744300572118</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.067427614873929</v>
+        <v>0.06967618787028707</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -1003,19 +1003,19 @@
         <v>52078</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39130</v>
+        <v>38708</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70409</v>
+        <v>67890</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03831107156612315</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0287859599595842</v>
+        <v>0.02847521219222017</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05179591377533224</v>
+        <v>0.04994276457928701</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>712438</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>700867</v>
+        <v>700103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>720590</v>
+        <v>720736</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9686593476846201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9529263275323555</v>
+        <v>0.9518882522953527</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9797428413619703</v>
+        <v>0.9799418513010411</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>563</v>
@@ -1053,19 +1053,19 @@
         <v>594842</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>581804</v>
+        <v>580401</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>604692</v>
+        <v>604301</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9534714049627804</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9325723851260708</v>
+        <v>0.9303238121297129</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9692596404545256</v>
+        <v>0.9686325569942786</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1244</v>
@@ -1074,19 +1074,19 @@
         <v>1307280</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1288949</v>
+        <v>1291468</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1320228</v>
+        <v>1320650</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9616889284338769</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9482040862246678</v>
+        <v>0.9500572354207127</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.971214040040416</v>
+        <v>0.9715247878077798</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>23107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14607</v>
+        <v>14325</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35353</v>
+        <v>34936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03618075941802384</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02287030642872617</v>
+        <v>0.02242998115940194</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05535450669833395</v>
+        <v>0.05470192488550055</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -1199,19 +1199,19 @@
         <v>40805</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30025</v>
+        <v>29540</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54044</v>
+        <v>55663</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05915994465182008</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0435299486683306</v>
+        <v>0.04282687109942171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07835323342141597</v>
+        <v>0.08070137171592305</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -1220,19 +1220,19 @@
         <v>63913</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47879</v>
+        <v>48713</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81261</v>
+        <v>80641</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04811212026345846</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03604253043722302</v>
+        <v>0.03666997862912859</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06117127967626435</v>
+        <v>0.06070463978346222</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>615561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>603315</v>
+        <v>603732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>624061</v>
+        <v>624343</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9638192405819762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9446454933016661</v>
+        <v>0.9452980751144997</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9771296935712739</v>
+        <v>0.9775700188405982</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>618</v>
@@ -1270,19 +1270,19 @@
         <v>648939</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>635700</v>
+        <v>634081</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>659719</v>
+        <v>660204</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9408400553481799</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9216467665785844</v>
+        <v>0.9192986282840769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9564700513316696</v>
+        <v>0.9571731289005783</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1210</v>
@@ -1291,19 +1291,19 @@
         <v>1264499</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1247151</v>
+        <v>1247771</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1280533</v>
+        <v>1279699</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9518878797365415</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9388287203237358</v>
+        <v>0.9392953602165378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9639574695627773</v>
+        <v>0.9633300213708718</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>10086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4947</v>
+        <v>5126</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18875</v>
+        <v>18904</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01942846829979973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009529795083389393</v>
+        <v>0.009874826501212101</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03635698156327541</v>
+        <v>0.03641410417530363</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1416,19 +1416,19 @@
         <v>21076</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13751</v>
+        <v>12897</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31053</v>
+        <v>30975</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0408730540555225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02666805067104688</v>
+        <v>0.02501089711082699</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06022289127569446</v>
+        <v>0.06007029298101493</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -1437,19 +1437,19 @@
         <v>31162</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21409</v>
+        <v>22354</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44876</v>
+        <v>45038</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03011444246806579</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02068967151682495</v>
+        <v>0.02160214412773296</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04336754297888024</v>
+        <v>0.04352426271759596</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>509061</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>500272</v>
+        <v>500243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>514200</v>
+        <v>514021</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9805715317002003</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9636430184367252</v>
+        <v>0.9635858958246963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9904702049166106</v>
+        <v>0.9901251734987879</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>481</v>
@@ -1487,19 +1487,19 @@
         <v>494566</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>484589</v>
+        <v>484667</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>501891</v>
+        <v>502745</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9591269459444774</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9397771087243055</v>
+        <v>0.9399297070189851</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9733319493289532</v>
+        <v>0.9749891028891731</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>956</v>
@@ -1508,19 +1508,19 @@
         <v>1003627</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>989913</v>
+        <v>989751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1013380</v>
+        <v>1012435</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9698855575319342</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9566324570211198</v>
+        <v>0.956475737282404</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.979310328483175</v>
+        <v>0.978397855872267</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>14730</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8474</v>
+        <v>9086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24603</v>
+        <v>25037</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03817985397484368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02196382824311344</v>
+        <v>0.02354958194670459</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06377026537914061</v>
+        <v>0.06489498347933834</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1633,19 +1633,19 @@
         <v>19327</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10965</v>
+        <v>11927</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28419</v>
+        <v>30335</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04784198005882059</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02714104067290467</v>
+        <v>0.02952435543087989</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07034745365911199</v>
+        <v>0.07508837160801168</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -1654,19 +1654,19 @@
         <v>34058</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23785</v>
+        <v>23995</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46798</v>
+        <v>48302</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04312209137918217</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03011551278804941</v>
+        <v>0.03038139771509114</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05925284149111413</v>
+        <v>0.06115717857881055</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>371081</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>361208</v>
+        <v>360774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>377337</v>
+        <v>376725</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9618201460251563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9362297346208597</v>
+        <v>0.9351050165206624</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9780361717568866</v>
+        <v>0.9764504180532955</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>378</v>
@@ -1704,19 +1704,19 @@
         <v>384659</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>375567</v>
+        <v>373651</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>393021</v>
+        <v>392059</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9521580199411794</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9296525463408879</v>
+        <v>0.9249116283919881</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.972858959327095</v>
+        <v>0.9704756445691201</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>754</v>
@@ -1725,19 +1725,19 @@
         <v>755739</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>742999</v>
+        <v>741495</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>766012</v>
+        <v>765802</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9568779086208178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.940747158508886</v>
+        <v>0.9388428214211892</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9698844872119506</v>
+        <v>0.9696186022849088</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>3376</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>915</v>
+        <v>837</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8526</v>
+        <v>8522</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01153872658536552</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003125846474059224</v>
+        <v>0.002861359680745924</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02913900678633034</v>
+        <v>0.02912675453863982</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -1850,19 +1850,19 @@
         <v>20338</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12868</v>
+        <v>12899</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29927</v>
+        <v>30316</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05930490236854416</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03752222854895097</v>
+        <v>0.03761330373582306</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0872687759328436</v>
+        <v>0.08840268874186949</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -1871,19 +1871,19 @@
         <v>23714</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15872</v>
+        <v>15660</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33984</v>
+        <v>32402</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03731403345953793</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02497560775788948</v>
+        <v>0.02464191929115594</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0534746144552205</v>
+        <v>0.05098547139172569</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>289207</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284057</v>
+        <v>284061</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>291668</v>
+        <v>291746</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9884612734146345</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9708609932136699</v>
+        <v>0.9708732454613601</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9968741535259408</v>
+        <v>0.997138640319254</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>349</v>
@@ -1921,19 +1921,19 @@
         <v>322596</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>313007</v>
+        <v>312618</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>330066</v>
+        <v>330035</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9406950976314559</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9127312240671565</v>
+        <v>0.9115973112581306</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9624777714510491</v>
+        <v>0.9623866962641769</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>648</v>
@@ -1942,19 +1942,19 @@
         <v>611803</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>601533</v>
+        <v>603115</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>619645</v>
+        <v>619857</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.962685966540462</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9465253855447795</v>
+        <v>0.9490145286082744</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9750243922421105</v>
+        <v>0.9753580807088439</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>9442</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5080</v>
+        <v>5058</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15269</v>
+        <v>16533</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04568952922779303</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02457919782937026</v>
+        <v>0.02447312568082059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07388151165203857</v>
+        <v>0.0799991762359735</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2067,19 +2067,19 @@
         <v>13603</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7138</v>
+        <v>6908</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22191</v>
+        <v>22321</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04073836954060478</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02137815516857583</v>
+        <v>0.02068886727161173</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0664596676148598</v>
+        <v>0.06684653046395735</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -2088,19 +2088,19 @@
         <v>23045</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14880</v>
+        <v>15656</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33864</v>
+        <v>34537</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04263121930139096</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0275261304224839</v>
+        <v>0.0289611390179122</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06264459766338509</v>
+        <v>0.06388914146337263</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>197220</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>191393</v>
+        <v>190129</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>201582</v>
+        <v>201604</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.954310470772207</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9261184883479612</v>
+        <v>0.9200008237640265</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9754208021706298</v>
+        <v>0.9755268743191795</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>278</v>
@@ -2138,19 +2138,19 @@
         <v>320305</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>311717</v>
+        <v>311587</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>326770</v>
+        <v>327000</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9592616304593952</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9335403323851403</v>
+        <v>0.9331534695360428</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9786218448314241</v>
+        <v>0.9793111327283882</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>484</v>
@@ -2159,19 +2159,19 @@
         <v>517525</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>506706</v>
+        <v>506033</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>525690</v>
+        <v>524914</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9573687806986091</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9373554023366145</v>
+        <v>0.9361108585366271</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.972473869577516</v>
+        <v>0.9710388609820872</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>96357</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78087</v>
+        <v>78236</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>116517</v>
+        <v>119001</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02944522377167277</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02386214542493052</v>
+        <v>0.02390753992748186</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03560572440267813</v>
+        <v>0.03636472077989468</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>155</v>
@@ -2284,19 +2284,19 @@
         <v>158282</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>134148</v>
+        <v>135364</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>186030</v>
+        <v>185064</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04686257438403699</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03971732864200321</v>
+        <v>0.04007718174581351</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05507797816365619</v>
+        <v>0.05479194402787485</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>249</v>
@@ -2305,19 +2305,19 @@
         <v>254639</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>226357</v>
+        <v>225176</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>288104</v>
+        <v>286481</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03829160054035863</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0340387241217887</v>
+        <v>0.03386111568779577</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04332391961276835</v>
+        <v>0.04307990637625513</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3176067</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3155907</v>
+        <v>3153423</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3194337</v>
+        <v>3194188</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9705547762283272</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9643942755973219</v>
+        <v>0.9636352792201053</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9761378545750695</v>
+        <v>0.9760924600725183</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3141</v>
@@ -2355,19 +2355,19 @@
         <v>3219291</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3191543</v>
+        <v>3192509</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3243425</v>
+        <v>3242209</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.953137425615963</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9449220218363439</v>
+        <v>0.9452080559721253</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9602826713579969</v>
+        <v>0.9599228182541868</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6257</v>
@@ -2376,19 +2376,19 @@
         <v>6395358</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6361893</v>
+        <v>6363516</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6423640</v>
+        <v>6424821</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9617083994596414</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9566760803872317</v>
+        <v>0.9569200936237447</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9659612758782113</v>
+        <v>0.9661388843122042</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>4813</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1914</v>
+        <v>1885</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10596</v>
+        <v>9795</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01061984333367538</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004223186860278524</v>
+        <v>0.004159661718004553</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02337999393501417</v>
+        <v>0.02161343100367803</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2744,19 +2744,19 @@
         <v>7247</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3063</v>
+        <v>3034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14895</v>
+        <v>14471</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01684356952867227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007119251022749096</v>
+        <v>0.00705250352280286</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03462114863475284</v>
+        <v>0.0336365296722627</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2765,19 +2765,19 @@
         <v>12059</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6782</v>
+        <v>6114</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20372</v>
+        <v>20155</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01365082242324372</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007677076156379042</v>
+        <v>0.006920402990129343</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02306080191576521</v>
+        <v>0.02281432451800168</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>448379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442596</v>
+        <v>443397</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>451278</v>
+        <v>451307</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9893801566663246</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9766200060649858</v>
+        <v>0.978386568996322</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9957768131397214</v>
+        <v>0.9958403382819955</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>414</v>
@@ -2815,19 +2815,19 @@
         <v>422983</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>415335</v>
+        <v>415759</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>427167</v>
+        <v>427196</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9831564304713277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9653788513652463</v>
+        <v>0.9663634703277372</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9928807489772509</v>
+        <v>0.992947496477197</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>854</v>
@@ -2836,19 +2836,19 @@
         <v>871363</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>863050</v>
+        <v>863267</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>876640</v>
+        <v>877308</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9863491775767563</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9769391980842347</v>
+        <v>0.9771856754819983</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.992322923843621</v>
+        <v>0.9930795970098706</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>12241</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6607</v>
+        <v>6462</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22371</v>
+        <v>21075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01792137687654453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009673164628041391</v>
+        <v>0.009460117606210667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03275113390058863</v>
+        <v>0.03085430046122089</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2961,19 +2961,19 @@
         <v>11147</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5951</v>
+        <v>6051</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18928</v>
+        <v>19357</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01829503978467763</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009767309446136629</v>
+        <v>0.009931566931663638</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03106655909189734</v>
+        <v>0.03176941012242145</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -2982,19 +2982,19 @@
         <v>23388</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15689</v>
+        <v>15108</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35061</v>
+        <v>34200</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01809754281623539</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01213988277217583</v>
+        <v>0.01169065458731291</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02712947983752436</v>
+        <v>0.02646326259235855</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>670821</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>660691</v>
+        <v>661987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>676455</v>
+        <v>676600</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9820786231234555</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9672488660994125</v>
+        <v>0.9691456995387792</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9903268353719586</v>
+        <v>0.9905398823937895</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>559</v>
@@ -3032,19 +3032,19 @@
         <v>598140</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>590359</v>
+        <v>589930</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>603336</v>
+        <v>603236</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9817049602153224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9689334409081025</v>
+        <v>0.9682305898775784</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9902326905538633</v>
+        <v>0.9900684330683364</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1210</v>
@@ -3053,19 +3053,19 @@
         <v>1268961</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1257288</v>
+        <v>1258149</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1276660</v>
+        <v>1277241</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9819024571837646</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9728705201624759</v>
+        <v>0.9735367374076416</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9878601172278242</v>
+        <v>0.9883093454126873</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>13724</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7193</v>
+        <v>7360</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24607</v>
+        <v>24448</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02015439207832708</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01056304769818303</v>
+        <v>0.01080907332999483</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03613723246015967</v>
+        <v>0.03590416892540533</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3178,19 +3178,19 @@
         <v>14340</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7603</v>
+        <v>7652</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24496</v>
+        <v>23318</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02023188084607742</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01072635933897783</v>
+        <v>0.01079559268940311</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0345611167101748</v>
+        <v>0.03289947789004965</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -3199,19 +3199,19 @@
         <v>28064</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18378</v>
+        <v>19157</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40885</v>
+        <v>42807</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02019391270108248</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01322466861274058</v>
+        <v>0.01378489242497438</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02941979259308091</v>
+        <v>0.03080268733950017</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>667207</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>656324</v>
+        <v>656483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>673738</v>
+        <v>673571</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.979845607921673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.96386276753984</v>
+        <v>0.9640958310745946</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9894369523018169</v>
+        <v>0.9891909266700047</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>652</v>
@@ -3249,19 +3249,19 @@
         <v>694434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>684278</v>
+        <v>685456</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>701171</v>
+        <v>701122</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9797681191539226</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9654388832898257</v>
+        <v>0.9671005221099507</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.989273640661023</v>
+        <v>0.9892044073105969</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1290</v>
@@ -3270,19 +3270,19 @@
         <v>1361641</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1348820</v>
+        <v>1346898</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1371327</v>
+        <v>1370548</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9798060872989175</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.970580207406919</v>
+        <v>0.9691973126604997</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9867753313872595</v>
+        <v>0.9862151075750255</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>14411</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7665</v>
+        <v>7198</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24150</v>
+        <v>24180</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02348695592740772</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01249191688808176</v>
+        <v>0.0117302969862707</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03935854531285782</v>
+        <v>0.0394071203875356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -3395,19 +3395,19 @@
         <v>8228</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3263</v>
+        <v>3836</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16193</v>
+        <v>17584</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01337508144530108</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005304222560691695</v>
+        <v>0.00623490521802425</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02632289967322827</v>
+        <v>0.02858413660329306</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -3416,19 +3416,19 @@
         <v>22639</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14026</v>
+        <v>14337</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36089</v>
+        <v>34944</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01842448083907226</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01141486858403308</v>
+        <v>0.01166769936464415</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02937030982372653</v>
+        <v>0.02843827068483146</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>599176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>589437</v>
+        <v>589407</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>605922</v>
+        <v>606389</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9765130440725923</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9606414546871422</v>
+        <v>0.9605928796124645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9875080831119182</v>
+        <v>0.9882697030137293</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>531</v>
@@ -3466,19 +3466,19 @@
         <v>606948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>598983</v>
+        <v>597592</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>611913</v>
+        <v>611340</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9866249185546989</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9736771003267715</v>
+        <v>0.9714158633967065</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9946957774393083</v>
+        <v>0.9937650947819757</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1066</v>
@@ -3487,19 +3487,19 @@
         <v>1206124</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1192674</v>
+        <v>1193819</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1214737</v>
+        <v>1214426</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9815755191609278</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9706296901762735</v>
+        <v>0.9715617293151685</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9885851314159669</v>
+        <v>0.9883323006353558</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>5174</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2049</v>
+        <v>2016</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12581</v>
+        <v>11126</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01207640465732987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004783468202905324</v>
+        <v>0.004705317391842104</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02936840518784816</v>
+        <v>0.02597166844054239</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3612,19 +3612,19 @@
         <v>6238</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2190</v>
+        <v>2135</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13505</v>
+        <v>12334</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01409006102671504</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004945660802801434</v>
+        <v>0.004821491564998235</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03050458278441262</v>
+        <v>0.02785944494296355</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3633,19 +3633,19 @@
         <v>11411</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6167</v>
+        <v>6075</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19759</v>
+        <v>20648</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01309978645578786</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007078837556329739</v>
+        <v>0.0069735244381121</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0226823239903791</v>
+        <v>0.02370327110505176</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>423225</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>415818</v>
+        <v>417273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>426350</v>
+        <v>426383</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9879235953426702</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9706315948121517</v>
+        <v>0.9740283315594574</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9952165317970947</v>
+        <v>0.9952946826081579</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>395</v>
@@ -3683,19 +3683,19 @@
         <v>436483</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>429216</v>
+        <v>430387</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>440531</v>
+        <v>440586</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9859099389732849</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9694954172155874</v>
+        <v>0.9721405550570366</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9950543391971985</v>
+        <v>0.9951785084350018</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>782</v>
@@ -3704,19 +3704,19 @@
         <v>859709</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>851361</v>
+        <v>850472</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>864953</v>
+        <v>865045</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9869002135442121</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9773176760096222</v>
+        <v>0.9762967288949482</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9929211624436702</v>
+        <v>0.9930264755618879</v>
       </c>
     </row>
     <row r="18">
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7019</v>
+        <v>6974</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00658073987947676</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02295230303254145</v>
+        <v>0.02280608199771003</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8842</v>
+        <v>9647</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005030985115391465</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02504677584277712</v>
+        <v>0.02732677298201597</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -3850,19 +3850,19 @@
         <v>3789</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10988</v>
+        <v>12567</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005750327268554988</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001486282957415362</v>
+        <v>0.001503877551137427</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01667850524059937</v>
+        <v>0.01907442456814921</v>
       </c>
     </row>
     <row r="20">
@@ -3879,7 +3879,7 @@
         <v>303799</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>298792</v>
+        <v>298837</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>305811</v>
@@ -3888,7 +3888,7 @@
         <v>0.9934192601205233</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9770476969674586</v>
+        <v>0.9771939180022901</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>351253</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>344187</v>
+        <v>343382</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>353029</v>
@@ -3909,7 +3909,7 @@
         <v>0.9949690148846085</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9749532241572229</v>
+        <v>0.9726732270179832</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3921,19 +3921,19 @@
         <v>655051</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>647852</v>
+        <v>646273</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>657861</v>
+        <v>657849</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.994249672731445</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9833214947594016</v>
+        <v>0.9809255754318515</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9985137170425846</v>
+        <v>0.9984961224488625</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>4181</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11175</v>
+        <v>9364</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01687011854962169</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004265466529833684</v>
+        <v>0.00427427482069928</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04509371440645311</v>
+        <v>0.03778540575749757</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -4046,19 +4046,19 @@
         <v>8741</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4248</v>
+        <v>4311</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16457</v>
+        <v>16733</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02285947737295215</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0111108440503304</v>
+        <v>0.01127311344097017</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04304036115996201</v>
+        <v>0.04376192688496681</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -4067,19 +4067,19 @@
         <v>12922</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7383</v>
+        <v>6623</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22430</v>
+        <v>21983</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0205041825274682</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01171539435595998</v>
+        <v>0.01050890146787103</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03559216890350639</v>
+        <v>0.03488226609903609</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>243640</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>236646</v>
+        <v>238457</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>246764</v>
+        <v>246762</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9831298814503783</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9549062855935463</v>
+        <v>0.9622145942425022</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9957345334701663</v>
+        <v>0.9957257251793007</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>336</v>
@@ -4117,19 +4117,19 @@
         <v>373630</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>365914</v>
+        <v>365638</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>378123</v>
+        <v>378060</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9771405226270479</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.956959638840038</v>
+        <v>0.9562380731150333</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9888891559496696</v>
+        <v>0.9887268865590298</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>552</v>
@@ -4138,19 +4138,19 @@
         <v>617270</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>607762</v>
+        <v>608209</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>622809</v>
+        <v>623569</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9794958174725318</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9644078310964934</v>
+        <v>0.9651177339009632</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.98828460564404</v>
+        <v>0.9894910985321289</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>56556</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42109</v>
+        <v>42446</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>73690</v>
+        <v>72657</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01657172608340086</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01233855453768955</v>
+        <v>0.01243732603169585</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02159212489357603</v>
+        <v>0.02128966962974415</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -4263,19 +4263,19 @@
         <v>57716</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44918</v>
+        <v>42467</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75402</v>
+        <v>74511</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01629671286977166</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01268292336441369</v>
+        <v>0.01199103059714544</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02129048302924894</v>
+        <v>0.0210389663153802</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>105</v>
@@ -4284,19 +4284,19 @@
         <v>114272</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>93207</v>
+        <v>94538</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>138112</v>
+        <v>136963</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01643167304727566</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0134025999914357</v>
+        <v>0.0135940503269317</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01985962742272847</v>
+        <v>0.01969453237667335</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3356246</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3339112</v>
+        <v>3340145</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3370693</v>
+        <v>3370356</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9834282739165991</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9784078751064241</v>
+        <v>0.9787103303702559</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9876614454623105</v>
+        <v>0.9875626739683043</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3229</v>
@@ -4334,19 +4334,19 @@
         <v>3483871</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3466185</v>
+        <v>3467076</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3496669</v>
+        <v>3499120</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9837032871302284</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9787095169707511</v>
+        <v>0.9789610336846197</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9873170766355863</v>
+        <v>0.9880089694028547</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6372</v>
@@ -4355,19 +4355,19 @@
         <v>6840117</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6816277</v>
+        <v>6817426</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6861182</v>
+        <v>6859851</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9835683269527243</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9801403725772716</v>
+        <v>0.9803054676233267</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9865974000085643</v>
+        <v>0.9864059496730684</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>3181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8578</v>
+        <v>9098</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007584417105815366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002496745483835204</v>
+        <v>0.002492647203121919</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02045002029307917</v>
+        <v>0.02169072587544162</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -4723,19 +4723,19 @@
         <v>10958</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5978</v>
+        <v>5565</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19835</v>
+        <v>19776</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02788954043798791</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01521537035343258</v>
+        <v>0.01416426337090275</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05048317160069522</v>
+        <v>0.05033151489070169</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4744,19 +4744,19 @@
         <v>14139</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8048</v>
+        <v>7538</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23687</v>
+        <v>23334</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01740515284005217</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009907046569926465</v>
+        <v>0.009278869581859811</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02915770651238815</v>
+        <v>0.02872365076957516</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>416282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>410885</v>
+        <v>410365</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>418416</v>
+        <v>418417</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9924155828941846</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9795499797069208</v>
+        <v>0.9783092741245587</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9975032545161648</v>
+        <v>0.9975073527968781</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>391</v>
@@ -4794,19 +4794,19 @@
         <v>381953</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>373076</v>
+        <v>373135</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>386933</v>
+        <v>387346</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9721104595620121</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9495168283993045</v>
+        <v>0.9496684851092982</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9847846296465674</v>
+        <v>0.9858357366290972</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>781</v>
@@ -4815,19 +4815,19 @@
         <v>798235</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>788687</v>
+        <v>789040</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>804326</v>
+        <v>804836</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9825948471599478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9708422934876119</v>
+        <v>0.9712763492304249</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9900929534300735</v>
+        <v>0.9907211304181401</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>8449</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4081</v>
+        <v>4056</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15694</v>
+        <v>16333</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01435185933548425</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006931749483962033</v>
+        <v>0.006889912275621509</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02665672862066234</v>
+        <v>0.02774221988182327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -4940,19 +4940,19 @@
         <v>11769</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5957</v>
+        <v>6106</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18873</v>
+        <v>20522</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02095506961912377</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01060740972811233</v>
+        <v>0.01087259357556263</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03360562041794612</v>
+        <v>0.03654202791061808</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -4961,19 +4961,19 @@
         <v>20218</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13118</v>
+        <v>12308</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29854</v>
+        <v>29698</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01757561377982176</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01140335469235454</v>
+        <v>0.01069976555087868</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02595271050177653</v>
+        <v>0.02581686604483349</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>580284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>573039</v>
+        <v>572400</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>584652</v>
+        <v>584677</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9856481406645158</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9733432713793376</v>
+        <v>0.9722577801181777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9930682505160379</v>
+        <v>0.9931100877243786</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>565</v>
@@ -5011,19 +5011,19 @@
         <v>549839</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>542735</v>
+        <v>541086</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>555651</v>
+        <v>555502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9790449303808763</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9663943795820539</v>
+        <v>0.963457972089382</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9893925902718876</v>
+        <v>0.9891274064244374</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1122</v>
@@ -5032,19 +5032,19 @@
         <v>1130124</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1120488</v>
+        <v>1120644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1137224</v>
+        <v>1138034</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9824243862201782</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9740472894982231</v>
+        <v>0.9741831339551662</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9885966453076455</v>
+        <v>0.989300234449121</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>7231</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3047</v>
+        <v>3146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13751</v>
+        <v>14304</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01082426878778422</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004560572873632443</v>
+        <v>0.004709197723987687</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02058386518085398</v>
+        <v>0.02141204841347668</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5157,19 +5157,19 @@
         <v>13021</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6891</v>
+        <v>7360</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22351</v>
+        <v>21511</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01971379020590949</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01043314225280251</v>
+        <v>0.01114294678895083</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03383939365776776</v>
+        <v>0.03256722306634123</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -5178,19 +5178,19 @@
         <v>20252</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12852</v>
+        <v>12668</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30481</v>
+        <v>30760</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01524378778583366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009673878918885537</v>
+        <v>0.009535046235923468</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02294291196387075</v>
+        <v>0.02315293729781444</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>660819</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>654299</v>
+        <v>653746</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>665003</v>
+        <v>664904</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9891757312122158</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9794161348191459</v>
+        <v>0.9785879515865237</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9954394271263676</v>
+        <v>0.9952908022760125</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -5228,19 +5228,19 @@
         <v>647484</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638154</v>
+        <v>638994</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>653614</v>
+        <v>653145</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9802862097940905</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9661606063422323</v>
+        <v>0.9674327769336587</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9895668577471975</v>
+        <v>0.9888570532110488</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1281</v>
@@ -5249,19 +5249,19 @@
         <v>1308303</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1298074</v>
+        <v>1297795</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1315703</v>
+        <v>1315887</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9847562122141663</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9770570880361289</v>
+        <v>0.9768470627021856</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9903261210811144</v>
+        <v>0.9904649537640766</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>10790</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5026</v>
+        <v>5018</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21403</v>
+        <v>20948</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0167651162989262</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007810161881449233</v>
+        <v>0.007796771990228857</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03325611944090612</v>
+        <v>0.03254987164319242</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -5374,19 +5374,19 @@
         <v>12137</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6638</v>
+        <v>6393</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21800</v>
+        <v>21038</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01869907584678517</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01022759518137386</v>
+        <v>0.009848682342683691</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03358652203193919</v>
+        <v>0.03241226397522533</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -5395,19 +5395,19 @@
         <v>22927</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13388</v>
+        <v>13914</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35316</v>
+        <v>35660</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01773621076011827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01035669651627155</v>
+        <v>0.0107640879103975</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0273206384337805</v>
+        <v>0.02758637603564719</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>632787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>622174</v>
+        <v>622629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>638551</v>
+        <v>638559</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9832348837010738</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9667438805590942</v>
+        <v>0.9674501283568079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9921898381185508</v>
+        <v>0.9922032280097711</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>591</v>
@@ -5445,19 +5445,19 @@
         <v>636940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>627277</v>
+        <v>628039</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>642439</v>
+        <v>642684</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9813009241532148</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.966413477968061</v>
+        <v>0.9675877360247747</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9897724048186262</v>
+        <v>0.9901513176573162</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1163</v>
@@ -5466,19 +5466,19 @@
         <v>1269727</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1257338</v>
+        <v>1256994</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1279266</v>
+        <v>1278740</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9822637892398818</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9726793615662194</v>
+        <v>0.9724136239643527</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9896433034837283</v>
+        <v>0.9892359120896025</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>5916</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2091</v>
+        <v>2004</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13111</v>
+        <v>13461</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01246824567239146</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004407888717912162</v>
+        <v>0.004223376201927162</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02763212792469622</v>
+        <v>0.02836880616118948</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -5591,19 +5591,19 @@
         <v>6882</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2351</v>
+        <v>2363</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14679</v>
+        <v>14858</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01394734783363682</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004764737532523736</v>
+        <v>0.004788581867400622</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02974712179311296</v>
+        <v>0.03011060541026116</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -5612,19 +5612,19 @@
         <v>12798</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6590</v>
+        <v>6591</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23026</v>
+        <v>20891</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01322228582038022</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006808737987230726</v>
+        <v>0.006809457454008652</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02378936889769478</v>
+        <v>0.02158349413891704</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>468568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>461373</v>
+        <v>461023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>472393</v>
+        <v>472480</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9875317543276085</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9723678720753033</v>
+        <v>0.9716311938388101</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9955921112820878</v>
+        <v>0.9957766237980727</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>424</v>
@@ -5662,19 +5662,19 @@
         <v>486565</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>478768</v>
+        <v>478589</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>491096</v>
+        <v>491084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9860526521663632</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9702528782068872</v>
+        <v>0.9698893945897389</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9952352624674763</v>
+        <v>0.9952114181325994</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>840</v>
@@ -5683,19 +5683,19 @@
         <v>955133</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>944905</v>
+        <v>947040</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>961341</v>
+        <v>961340</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9867777141796198</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9762106311023052</v>
+        <v>0.978416505861083</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9931912620127693</v>
+        <v>0.9931905425459914</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>4632</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12822</v>
+        <v>12219</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01385340372664165</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003167669239302997</v>
+        <v>0.003156900089041013</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03835148945652552</v>
+        <v>0.03654665840610984</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -5808,19 +5808,19 @@
         <v>8251</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3900</v>
+        <v>3972</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15492</v>
+        <v>15435</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02190251790523828</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01035363468320341</v>
+        <v>0.01054259339641131</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04112227034377295</v>
+        <v>0.04097066799247983</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -5829,19 +5829,19 @@
         <v>12883</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7044</v>
+        <v>6603</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22486</v>
+        <v>22857</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0181179266223667</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009906632653000737</v>
+        <v>0.009286181349645159</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03162265933836384</v>
+        <v>0.03214562418330518</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>329698</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321508</v>
+        <v>322111</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>333271</v>
+        <v>333275</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9861465962733583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9616485105434743</v>
+        <v>0.9634533415938902</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.996832330760697</v>
+        <v>0.996843099910959</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>345</v>
@@ -5879,19 +5879,19 @@
         <v>368476</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>361235</v>
+        <v>361292</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>372827</v>
+        <v>372755</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9780974820947618</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9588777296562269</v>
+        <v>0.9590293320075202</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9896463653167966</v>
+        <v>0.9894574066035886</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>666</v>
@@ -5900,19 +5900,19 @@
         <v>698174</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>688571</v>
+        <v>688200</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>704013</v>
+        <v>704454</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9818820733776333</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9683773406616362</v>
+        <v>0.9678543758166954</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9900933673469994</v>
+        <v>0.9907138186503549</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>5825</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2509</v>
+        <v>2446</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11564</v>
+        <v>11449</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02266482125666737</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009761133356497668</v>
+        <v>0.009516485298033386</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04499506998282846</v>
+        <v>0.04454935804305873</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -6025,19 +6025,19 @@
         <v>12428</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6151</v>
+        <v>5987</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22329</v>
+        <v>23649</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03136401052290225</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01552317339673224</v>
+        <v>0.01510883284570675</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0563530291836481</v>
+        <v>0.05968380333319768</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -6046,19 +6046,19 @@
         <v>18252</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10177</v>
+        <v>10451</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29541</v>
+        <v>29178</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02794154320003745</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01557994055972318</v>
+        <v>0.01599851340645523</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0452233202239312</v>
+        <v>0.0446676037741395</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>251173</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>245434</v>
+        <v>245549</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>254489</v>
+        <v>254552</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9773351787433326</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9550049300171716</v>
+        <v>0.9554506419569413</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9902388666435022</v>
+        <v>0.9904835147019666</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>289</v>
@@ -6096,19 +6096,19 @@
         <v>383809</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>373908</v>
+        <v>372588</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>390086</v>
+        <v>390250</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9686359894770977</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9436469708163521</v>
+        <v>0.9403161966668028</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9844768266032679</v>
+        <v>0.9848911671542937</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>584</v>
@@ -6117,19 +6117,19 @@
         <v>634983</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>623694</v>
+        <v>624057</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>643058</v>
+        <v>642784</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9720584567999625</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9547766797760686</v>
+        <v>0.9553323962258603</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9844200594402768</v>
+        <v>0.9840014865935447</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>46024</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33815</v>
+        <v>33151</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60447</v>
+        <v>62385</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01359390352139714</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009987750208644876</v>
+        <v>0.009791737424753951</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01785403474650687</v>
+        <v>0.0184263566666483</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -6242,19 +6242,19 @@
         <v>75446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57521</v>
+        <v>58831</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>93659</v>
+        <v>94788</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02136969479315706</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01629264890369675</v>
+        <v>0.01666361291740618</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02652837696665094</v>
+        <v>0.02684812667828664</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>111</v>
@@ -6263,19 +6263,19 @@
         <v>121470</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101725</v>
+        <v>100831</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>148309</v>
+        <v>145109</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0175632422657395</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01470838475738285</v>
+        <v>0.01457903737601208</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02144383690537686</v>
+        <v>0.02098125803704046</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3339611</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3325188</v>
+        <v>3323250</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3351820</v>
+        <v>3352484</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9864060964786029</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9821459652534931</v>
+        <v>0.9815736433333517</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9900122497913552</v>
+        <v>0.990208262575246</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3256</v>
@@ -6313,19 +6313,19 @@
         <v>3455067</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3436854</v>
+        <v>3435725</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3472992</v>
+        <v>3471682</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9786303052068429</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9734716230333491</v>
+        <v>0.9731518733217133</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9837073510963035</v>
+        <v>0.9833363870825937</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6437</v>
@@ -6334,19 +6334,19 @@
         <v>6794678</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6767839</v>
+        <v>6771039</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6814423</v>
+        <v>6815317</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9824367577342605</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9785561630946231</v>
+        <v>0.9790187419629595</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9852916152426171</v>
+        <v>0.9854209626239878</v>
       </c>
     </row>
     <row r="27">
@@ -6684,16 +6684,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9197</v>
+        <v>10533</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.004030636430680989</v>
+        <v>0.00403063643068099</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02264596436833072</v>
+        <v>0.02593351754526705</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6702,19 +6702,19 @@
         <v>5665</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1479</v>
+        <v>1493</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13169</v>
+        <v>14592</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01562834930051476</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004079634152857862</v>
+        <v>0.00411926119482147</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03632601301728772</v>
+        <v>0.04025218158297302</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -6723,19 +6723,19 @@
         <v>7302</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2734</v>
+        <v>2705</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15767</v>
+        <v>15884</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009500355647339186</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003557326500491899</v>
+        <v>0.003519384699015207</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02051307204009642</v>
+        <v>0.02066518149255711</v>
       </c>
     </row>
     <row r="5">
@@ -6752,16 +6752,16 @@
         <v>404503</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>396943</v>
+        <v>395607</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>406140</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.995969363569319</v>
+        <v>0.9959693635693191</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.977354035631668</v>
+        <v>0.9740664824547326</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6773,19 +6773,19 @@
         <v>356847</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>349343</v>
+        <v>347920</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>361033</v>
+        <v>361019</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9843716506994851</v>
+        <v>0.9843716506994854</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9636739869827122</v>
+        <v>0.9597478184170278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9959203658471422</v>
+        <v>0.9958807388051785</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>373</v>
@@ -6794,19 +6794,19 @@
         <v>761350</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>752885</v>
+        <v>752768</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>765918</v>
+        <v>765947</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9904996443526607</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9794869279599034</v>
+        <v>0.979334818507443</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9964426734995082</v>
+        <v>0.9964806153009849</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>9464</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3763</v>
+        <v>4105</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20842</v>
+        <v>21115</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01984500422154267</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007890288510222965</v>
+        <v>0.008608529521294555</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04370428476200348</v>
+        <v>0.04427558344393732</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -6919,19 +6919,19 @@
         <v>6535</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2821</v>
+        <v>2614</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14787</v>
+        <v>14456</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01302526648034312</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005623443656143145</v>
+        <v>0.005209904583257489</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02947228995547865</v>
+        <v>0.02881166488514412</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -6940,19 +6940,19 @@
         <v>15999</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8176</v>
+        <v>8785</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27082</v>
+        <v>27760</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01634857582490017</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008354793383586438</v>
+        <v>0.008976599939882564</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02767322518841476</v>
+        <v>0.02836665021868611</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>467426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>456048</v>
+        <v>455775</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>473127</v>
+        <v>472785</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9801549957784574</v>
+        <v>0.9801549957784573</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9562957152379967</v>
+        <v>0.9557244165560628</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.992109711489777</v>
+        <v>0.9913914704787054</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>455</v>
@@ -6990,19 +6990,19 @@
         <v>495198</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>486946</v>
+        <v>487277</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498912</v>
+        <v>499119</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9869747335196567</v>
+        <v>0.9869747335196568</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9705277100445211</v>
+        <v>0.9711883351148557</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9943765563438569</v>
+        <v>0.9947900954167425</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>751</v>
@@ -7011,19 +7011,19 @@
         <v>962624</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>951541</v>
+        <v>950863</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>970447</v>
+        <v>969838</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9836514241750998</v>
+        <v>0.9836514241750999</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9723267748115852</v>
+        <v>0.9716333497813141</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9916452066164135</v>
+        <v>0.9910234000601178</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>5911</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1590</v>
+        <v>2112</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13501</v>
+        <v>14634</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.009556328281512691</v>
+        <v>0.009556328281512693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002571216370425105</v>
+        <v>0.003413585654637793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02182592460150083</v>
+        <v>0.02365802343538088</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -7136,19 +7136,19 @@
         <v>4846</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1705</v>
+        <v>2178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10207</v>
+        <v>10301</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.00778597370733321</v>
+        <v>0.007785973707333209</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002739426644337577</v>
+        <v>0.003498618255773741</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01639789548130333</v>
+        <v>0.01654947063919376</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -7157,19 +7157,19 @@
         <v>10758</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5276</v>
+        <v>5661</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18838</v>
+        <v>18264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008668388397496158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004251108582197783</v>
+        <v>0.004561761635383798</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01517982051835003</v>
+        <v>0.0147167168387011</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>612662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>605072</v>
+        <v>603939</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>616983</v>
+        <v>616461</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9904436717184871</v>
+        <v>0.9904436717184874</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9781740753984992</v>
+        <v>0.9763419765646192</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9974287836295748</v>
+        <v>0.9965864143453623</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>841</v>
@@ -7207,19 +7207,19 @@
         <v>617600</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>612239</v>
+        <v>612145</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>620741</v>
+        <v>620268</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9922140262926671</v>
+        <v>0.9922140262926669</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9836021045186968</v>
+        <v>0.9834505293608065</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972605733556624</v>
+        <v>0.9965013817442262</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1380</v>
@@ -7228,19 +7228,19 @@
         <v>1230261</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1222181</v>
+        <v>1222755</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1235743</v>
+        <v>1235358</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9913316116025039</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9848201794816499</v>
+        <v>0.9852832831612982</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9957488914178022</v>
+        <v>0.9954382383646161</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>4120</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1135</v>
+        <v>1115</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10800</v>
+        <v>10158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005892001396408102</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00162394207195863</v>
+        <v>0.00159449821792102</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0154461739843225</v>
+        <v>0.01452906910015732</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -7353,19 +7353,19 @@
         <v>8384</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4245</v>
+        <v>4223</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14438</v>
+        <v>14079</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01139506074059201</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005769000188993961</v>
+        <v>0.005739805530242898</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01962374133096156</v>
+        <v>0.01913511315621991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -7374,19 +7374,19 @@
         <v>12504</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6728</v>
+        <v>7723</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20067</v>
+        <v>20091</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.008713661236491095</v>
+        <v>0.008713661236491097</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004688911075309221</v>
+        <v>0.005382291250109909</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01398455065913949</v>
+        <v>0.01400134320880335</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>695061</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>688381</v>
+        <v>689023</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>698046</v>
+        <v>698066</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9941079986035918</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9845538260156775</v>
+        <v>0.9854709308998428</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983760579280414</v>
+        <v>0.9984055017820791</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1127</v>
@@ -7424,19 +7424,19 @@
         <v>727370</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>721316</v>
+        <v>721675</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>731509</v>
+        <v>731531</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.988604939259408</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9803762586690382</v>
+        <v>0.9808648868437801</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9942309998110059</v>
+        <v>0.9942601944697571</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1787</v>
@@ -7445,19 +7445,19 @@
         <v>1422431</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1414868</v>
+        <v>1414844</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1428207</v>
+        <v>1427212</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9912863387635089</v>
+        <v>0.9912863387635088</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9860154493408609</v>
+        <v>0.9859986567911967</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9953110889246911</v>
+        <v>0.9946177087498902</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>8274</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3461</v>
+        <v>3884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15505</v>
+        <v>15644</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01360867325223006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00569272995437493</v>
+        <v>0.006388892758238379</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02550324270432647</v>
+        <v>0.0257317739538523</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -7570,19 +7570,19 @@
         <v>9685</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5677</v>
+        <v>5665</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15835</v>
+        <v>15725</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01595829682789187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009354567021119958</v>
+        <v>0.009333691503973734</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02609125532808784</v>
+        <v>0.02591091390588562</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -7591,19 +7591,19 @@
         <v>17959</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11466</v>
+        <v>11587</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26264</v>
+        <v>25757</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01478245966974945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009438298366999148</v>
+        <v>0.009537798018583468</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02161917103440891</v>
+        <v>0.02120142070322185</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>599685</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>592454</v>
+        <v>592315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>604498</v>
+        <v>604075</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9863913267477696</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9744967572956733</v>
+        <v>0.9742682260461475</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.994307270045625</v>
+        <v>0.9936111072417615</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>984</v>
@@ -7641,19 +7641,19 @@
         <v>597214</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>591064</v>
+        <v>591174</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>601222</v>
+        <v>601234</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9840417031721082</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.973908744671912</v>
+        <v>0.9740890860941142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.99064543297888</v>
+        <v>0.9906663084960263</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1637</v>
@@ -7662,19 +7662,19 @@
         <v>1196900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1188595</v>
+        <v>1189102</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1203393</v>
+        <v>1203272</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9852175403302506</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.978380828965591</v>
+        <v>0.9787985792967786</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9905617016330007</v>
+        <v>0.9904622019814167</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>6037</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2825</v>
+        <v>2849</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11395</v>
+        <v>10643</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01485225568966103</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006949328371017598</v>
+        <v>0.00700824934826652</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02803449161865626</v>
+        <v>0.0261831735297886</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -7787,19 +7787,19 @@
         <v>6910</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11553</v>
+        <v>11161</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01583497763060926</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008657665310171359</v>
+        <v>0.008653688080681081</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0264731944758549</v>
+        <v>0.02557643808077677</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -7808,19 +7808,19 @@
         <v>12947</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8350</v>
+        <v>8563</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18838</v>
+        <v>19461</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01536106134431453</v>
+        <v>0.01536106134431454</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009907282320935649</v>
+        <v>0.0101598732878488</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02234987132395093</v>
+        <v>0.02308887096641327</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>400433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>395075</v>
+        <v>395827</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>403645</v>
+        <v>403621</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9851477443103389</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9719655083813444</v>
+        <v>0.9738168264702113</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9930506716289828</v>
+        <v>0.9929917506517334</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>808</v>
@@ -7858,19 +7858,19 @@
         <v>429484</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>424841</v>
+        <v>425233</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>432616</v>
+        <v>432618</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9841650223693906</v>
+        <v>0.9841650223693907</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9735268055241451</v>
+        <v>0.9744235619192235</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9913423346898286</v>
+        <v>0.9913463119193188</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1368</v>
@@ -7879,19 +7879,19 @@
         <v>829917</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>824026</v>
+        <v>823403</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>834514</v>
+        <v>834301</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9846389386556853</v>
+        <v>0.9846389386556854</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9776501286760488</v>
+        <v>0.9769111290335865</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9900927176790644</v>
+        <v>0.9898401267121512</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>2426</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>714</v>
+        <v>586</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6093</v>
+        <v>5976</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.007838556424674108</v>
+        <v>0.007838556424674107</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002305563420840635</v>
+        <v>0.001891818086718291</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01968553146037679</v>
+        <v>0.01930768032197476</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -8004,19 +8004,19 @@
         <v>5578</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2840</v>
+        <v>2834</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10076</v>
+        <v>10081</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01207482996265341</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006148026958331333</v>
+        <v>0.006134846100239387</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02181082778771641</v>
+        <v>0.02182169570096109</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -8025,19 +8025,19 @@
         <v>8004</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4616</v>
+        <v>4481</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13115</v>
+        <v>13165</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01037529531943126</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005983546126980292</v>
+        <v>0.005808498355250331</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01700047349196883</v>
+        <v>0.01706452697781567</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>307078</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>303411</v>
+        <v>303528</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>308790</v>
+        <v>308918</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9921614435753258</v>
+        <v>0.9921614435753255</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9803144685396237</v>
+        <v>0.9806923196780256</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9976944365791593</v>
+        <v>0.9981081819132817</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>865</v>
@@ -8075,19 +8075,19 @@
         <v>456390</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>451892</v>
+        <v>451887</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>459128</v>
+        <v>459134</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9879251700373467</v>
+        <v>0.9879251700373466</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9781891722122834</v>
+        <v>0.978178304299039</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9938519730416687</v>
+        <v>0.9938651538997606</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1318</v>
@@ -8096,19 +8096,19 @@
         <v>763468</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>758357</v>
+        <v>758307</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>766856</v>
+        <v>766991</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9896247046805686</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9829995265080311</v>
+        <v>0.9829354730221841</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9940164538730198</v>
+        <v>0.9941915016447497</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>37868</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26219</v>
+        <v>26267</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52819</v>
+        <v>52477</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01074365020820381</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007438672027563699</v>
+        <v>0.007452154428965952</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01498528482582845</v>
+        <v>0.01488839208021984</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -8221,19 +8221,19 @@
         <v>47605</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37628</v>
+        <v>37210</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61165</v>
+        <v>61618</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01277046178530789</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01009411047760168</v>
+        <v>0.009982128828630166</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01640828122089821</v>
+        <v>0.01652964457744735</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -8242,19 +8242,19 @@
         <v>85473</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>68705</v>
+        <v>69976</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>104874</v>
+        <v>103757</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01178542027123889</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009473406639879391</v>
+        <v>0.00964868309739474</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01446059456256115</v>
+        <v>0.01430647763469524</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3486850</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3471899</v>
+        <v>3472241</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3498499</v>
+        <v>3498451</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9892563497917963</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9850147151741714</v>
+        <v>0.9851116079197801</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9925613279724361</v>
+        <v>0.992547845571034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5283</v>
@@ -8292,19 +8292,19 @@
         <v>3680101</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3666541</v>
+        <v>3666088</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3690078</v>
+        <v>3690496</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9872295382146919</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9835917187791021</v>
+        <v>0.9834703554225529</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9899058895223981</v>
+        <v>0.9900178711713699</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8614</v>
@@ -8313,19 +8313,19 @@
         <v>7166951</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7147550</v>
+        <v>7148667</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7183719</v>
+        <v>7182448</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9882145797287613</v>
+        <v>0.9882145797287609</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9855394054374388</v>
+        <v>0.9856935223653049</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9905265933601206</v>
+        <v>0.9903513169026054</v>
       </c>
     </row>
     <row r="27">
